--- a/data/trans_orig/Q15_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 12 meses</t>
+          <t>Número medio de accidentes en los últimos 12 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,03; 0,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,03; 0,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,04; 0,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,28</t>
+          <t>0,04; 0,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,09</t>
+          <t>0,04; 0,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,19</t>
+          <t>0,06; 0,2</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,19</t>
+          <t>0,08; 0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,07</t>
+          <t>0,01; 0,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,18</t>
+          <t>0,04; 0,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,15</t>
+          <t>0,06; 0,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,1</t>
+          <t>0,02; 0,1</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,09</t>
+          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,16</t>
+          <t>0,07; 0,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,23</t>
+          <t>0,07; 0,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,11</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
+          <t>0,08; 0,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,14</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,15</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,15</t>
+          <t>0,07; 0,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,14</t>
+          <t>0,02; 0,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,06; 0,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_orig/Q15_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
